--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed2/result_data_RandomForest.xlsx
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.97980000000001</v>
+        <v>-21.99770000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.2285</v>
+        <v>-12.10739999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.598499999999996</v>
+        <v>-8.523199999999997</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.34299999999999</v>
+        <v>-20.26209999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.43949999999997</v>
+        <v>-20.12899999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,10 +842,10 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-14.09729999999999</v>
+        <v>-13.31549999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.9154</v>
+        <v>-7.890099999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.60409999999999</v>
+        <v>-21.58909999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.964800000000004</v>
+        <v>5.983100000000007</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.093700000000004</v>
+        <v>-7.221100000000003</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.283400000000003</v>
+        <v>5.627100000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.2377</v>
+        <v>-8.136799999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-8.2723</v>
+        <v>-8.068399999999999</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0554</v>
+        <v>10.0248</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.406500000000002</v>
+        <v>5.296500000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.4316</v>
+        <v>5.426900000000002</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.230200000000001</v>
+        <v>5.2014</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9556</v>
+        <v>-21.89320000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.720999999999996</v>
+        <v>6.246999999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.806699999999996</v>
+        <v>-7.912599999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.954599999999997</v>
+        <v>5.137099999999998</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.9639</v>
+        <v>-22.0057</v>
       </c>
       <c r="B57" t="n">
-        <v>5.5983</v>
+        <v>5.425699999999998</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.91809999999999</v>
+        <v>-13.22839999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2009</v>
+        <v>-22.4051</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.08209999999999</v>
+        <v>-13.25439999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.241499999999998</v>
+        <v>-8.177099999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64849999999998</v>
+        <v>-21.63799999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.2548</v>
+        <v>-12.2266</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.2744</v>
+        <v>-8.191799999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.475299999999999</v>
+        <v>8.512699999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1712,7 +1712,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.309200000000001</v>
+        <v>-8.236000000000002</v>
       </c>
       <c r="E75" t="n">
         <v>16.51</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.5484</v>
+        <v>-20.89410000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.01979999999999</v>
+        <v>-22.13899999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.45109999999999</v>
+        <v>-8.357799999999996</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.25779999999999</v>
+        <v>-13.17539999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.874299999999994</v>
+        <v>5.391299999999993</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.587000000000002</v>
+        <v>5.626999999999999</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.30099999999999</v>
+        <v>-21.3055</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.157000000000002</v>
+        <v>-7.3849</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.224600000000004</v>
+        <v>-8.369100000000001</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.86579999999999</v>
+        <v>-12.07109999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.28289999999999</v>
+        <v>-12.22459999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.38190000000001</v>
+        <v>-13.64630000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
